--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -679,8 +679,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.980625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.580625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.930625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.520625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="8.280625" style="0" customWidth="1"/>
   </x:cols>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -678,11 +678,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.640625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="6.570625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="7.240625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="8.620625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="6.880625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.300625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.240625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="8.980625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.520625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -678,11 +678,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.300625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.240625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="8.980625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="7.520625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.250625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.290625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.950625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.450625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.720625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -678,11 +678,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.250625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.290625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.950625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.450625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.720625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.620625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="10.360625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.930625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.160625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -678,11 +678,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.620625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.710625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.360625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.930625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.160625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.096636" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.114759" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.781075" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.246332" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.534509" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -678,11 +678,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.870625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.580625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.440625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="8.280625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.210625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -678,11 +678,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.870625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.440625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.210625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.990625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.040625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.520625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.220625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.300625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -689,10 +689,10 @@
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="s"/>
-      <x:c r="D2" s="2" t="s"/>
-      <x:c r="E2" s="2" t="s"/>
-      <x:c r="F2" s="3" t="s"/>
+      <x:c r="C2" s="2"/>
+      <x:c r="D2" s="2"/>
+      <x:c r="E2" s="2"/>
+      <x:c r="F2" s="3"/>
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="B3" s="4" t="s">
@@ -724,7 +724,7 @@
       <x:c r="E4" s="9">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F4" s="10" t="n">
+      <x:c r="F4" s="10">
         <x:v>2000</x:v>
       </x:c>
     </x:row>
@@ -741,7 +741,7 @@
       <x:c r="E5" s="9">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F5" s="10" t="n">
+      <x:c r="F5" s="10">
         <x:v>40000</x:v>
       </x:c>
     </x:row>
@@ -758,7 +758,7 @@
       <x:c r="E6" s="13">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F6" s="14" t="n">
+      <x:c r="F6" s="14">
         <x:v>10000</x:v>
       </x:c>
     </x:row>
@@ -789,10 +789,10 @@
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s"/>
-      <x:c r="C1" s="2" t="s"/>
-      <x:c r="D1" s="2" t="s"/>
-      <x:c r="E1" s="3" t="s"/>
+      <x:c r="B1" s="2"/>
+      <x:c r="C1" s="2"/>
+      <x:c r="D1" s="2"/>
+      <x:c r="E1" s="3"/>
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="4" t="s">
@@ -824,7 +824,7 @@
       <x:c r="D3" s="9">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="E3" s="10" t="n">
+      <x:c r="E3" s="10">
         <x:v>2000</x:v>
       </x:c>
     </x:row>
@@ -841,7 +841,7 @@
       <x:c r="D4" s="9">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="E4" s="10" t="n">
+      <x:c r="E4" s="10">
         <x:v>40000</x:v>
       </x:c>
     </x:row>
@@ -858,7 +858,7 @@
       <x:c r="D5" s="13">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="E5" s="14" t="n">
+      <x:c r="E5" s="14">
         <x:v>10000</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Contacts</x:t>
   </x:si>
@@ -59,7 +59,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
+    <x:numFmt numFmtId="164" formatCode="$ #,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -299,7 +299,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -311,7 +311,7 @@
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -356,7 +356,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -372,7 +372,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -678,11 +678,11 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.990625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.040625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.520625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="10.220625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.300625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.282054" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.424911" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="7.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="9.567768" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="8.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:6">

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -667,7 +667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Ranges/CopyingRanges.xlsx
@@ -6,8 +6,8 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Contacts" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Contacts Copy" sheetId="5" r:id="rId5"/>
+    <x:sheet name="Contacts" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Contacts Copy" sheetId="2" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
